--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H2">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.40359114967505</v>
+        <v>1.414264</v>
       </c>
       <c r="N2">
-        <v>1.40359114967505</v>
+        <v>4.242792</v>
       </c>
       <c r="O2">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403135</v>
       </c>
       <c r="P2">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403134</v>
       </c>
       <c r="Q2">
-        <v>70.45930402303443</v>
+        <v>73.18545038449066</v>
       </c>
       <c r="R2">
-        <v>70.45930402303443</v>
+        <v>658.669053460416</v>
       </c>
       <c r="S2">
-        <v>0.007441190945918277</v>
+        <v>0.007320983628938432</v>
       </c>
       <c r="T2">
-        <v>0.007441190945918277</v>
+        <v>0.007320983628938431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H3">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I3">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J3">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.990266883032691</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N3">
-        <v>8.990266883032691</v>
+        <v>27.154433</v>
       </c>
       <c r="O3">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821262</v>
       </c>
       <c r="P3">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821261</v>
       </c>
       <c r="Q3">
-        <v>451.3051736657574</v>
+        <v>468.3966145501537</v>
       </c>
       <c r="R3">
-        <v>451.3051736657574</v>
+        <v>4215.569530951384</v>
       </c>
       <c r="S3">
-        <v>0.04766223593451671</v>
+        <v>0.04685526875842735</v>
       </c>
       <c r="T3">
-        <v>0.04766223593451671</v>
+        <v>0.04685526875842734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H4">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I4">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J4">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.46642872555989</v>
+        <v>8.586440999999999</v>
       </c>
       <c r="N4">
-        <v>8.46642872555989</v>
+        <v>25.759323</v>
       </c>
       <c r="O4">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="P4">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="Q4">
-        <v>425.0088608079946</v>
+        <v>444.331858680456</v>
       </c>
       <c r="R4">
-        <v>425.0088608079946</v>
+        <v>3998.986728124104</v>
       </c>
       <c r="S4">
-        <v>0.0448850883617242</v>
+        <v>0.04444799131692933</v>
       </c>
       <c r="T4">
-        <v>0.0448850883617242</v>
+        <v>0.04444799131692932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H5">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I5">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J5">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.64716005971898</v>
+        <v>8.225523666666668</v>
       </c>
       <c r="N5">
-        <v>7.64716005971898</v>
+        <v>24.676571</v>
       </c>
       <c r="O5">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770994</v>
       </c>
       <c r="P5">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770993</v>
       </c>
       <c r="Q5">
-        <v>383.882140953431</v>
+        <v>425.6550786792898</v>
       </c>
       <c r="R5">
-        <v>383.882140953431</v>
+        <v>3830.895708113608</v>
       </c>
       <c r="S5">
-        <v>0.04054170490569336</v>
+        <v>0.04257969099341587</v>
       </c>
       <c r="T5">
-        <v>0.04054170490569336</v>
+        <v>0.04257969099341586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H6">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I6">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J6">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.01656782056138</v>
+        <v>1.089400666666666</v>
       </c>
       <c r="N6">
-        <v>1.01656782056138</v>
+        <v>3.268202</v>
       </c>
       <c r="O6">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="P6">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="Q6">
-        <v>51.03100083350505</v>
+        <v>56.37439575578843</v>
       </c>
       <c r="R6">
-        <v>51.03100083350505</v>
+        <v>507.3695618020959</v>
       </c>
       <c r="S6">
-        <v>0.005389372299778674</v>
+        <v>0.005639318009948128</v>
       </c>
       <c r="T6">
-        <v>0.005389372299778674</v>
+        <v>0.005639318009948127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H7">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I7">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J7">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.40359114967505</v>
+        <v>1.414264</v>
       </c>
       <c r="N7">
-        <v>1.40359114967505</v>
+        <v>4.242792</v>
       </c>
       <c r="O7">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403135</v>
       </c>
       <c r="P7">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403134</v>
       </c>
       <c r="Q7">
-        <v>90.55699160307559</v>
+        <v>91.25579850793065</v>
       </c>
       <c r="R7">
-        <v>90.55699160307559</v>
+        <v>821.3021865713758</v>
       </c>
       <c r="S7">
-        <v>0.009563703124091447</v>
+        <v>0.009128620557944171</v>
       </c>
       <c r="T7">
-        <v>0.009563703124091447</v>
+        <v>0.009128620557944169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H8">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I8">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J8">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.990266883032691</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N8">
-        <v>8.990266883032691</v>
+        <v>27.154433</v>
       </c>
       <c r="O8">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821262</v>
       </c>
       <c r="P8">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821261</v>
       </c>
       <c r="Q8">
-        <v>580.0346652404314</v>
+        <v>584.0492455074636</v>
       </c>
       <c r="R8">
-        <v>580.0346652404314</v>
+        <v>5256.443209567173</v>
       </c>
       <c r="S8">
-        <v>0.06125732803001871</v>
+        <v>0.05842438548086203</v>
       </c>
       <c r="T8">
-        <v>0.06125732803001871</v>
+        <v>0.05842438548086202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H9">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I9">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J9">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.46642872555989</v>
+        <v>8.586440999999999</v>
       </c>
       <c r="N9">
-        <v>8.46642872555989</v>
+        <v>25.759323</v>
       </c>
       <c r="O9">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="P9">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="Q9">
-        <v>546.2376384932784</v>
+        <v>554.0426184900658</v>
       </c>
       <c r="R9">
-        <v>546.2376384932784</v>
+        <v>4986.383566410594</v>
       </c>
       <c r="S9">
-        <v>0.05768803178281682</v>
+        <v>0.05542272293728377</v>
       </c>
       <c r="T9">
-        <v>0.05768803178281682</v>
+        <v>0.05542272293728377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H10">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I10">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J10">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.64716005971898</v>
+        <v>8.225523666666668</v>
       </c>
       <c r="N10">
-        <v>7.64716005971898</v>
+        <v>24.676571</v>
       </c>
       <c r="O10">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770994</v>
       </c>
       <c r="P10">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770993</v>
       </c>
       <c r="Q10">
-        <v>493.3800056203479</v>
+        <v>530.7543219282597</v>
       </c>
       <c r="R10">
-        <v>493.3800056203479</v>
+        <v>4776.788897354339</v>
       </c>
       <c r="S10">
-        <v>0.05210574929208802</v>
+        <v>0.05309311729874313</v>
       </c>
       <c r="T10">
-        <v>0.05210574929208802</v>
+        <v>0.05309311729874312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H11">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I11">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J11">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01656782056138</v>
+        <v>1.089400666666666</v>
       </c>
       <c r="N11">
-        <v>1.01656782056138</v>
+        <v>3.268202</v>
       </c>
       <c r="O11">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="P11">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="Q11">
-        <v>65.58699348584966</v>
+        <v>70.29389684792842</v>
       </c>
       <c r="R11">
-        <v>65.58699348584966</v>
+        <v>632.6450716313559</v>
       </c>
       <c r="S11">
-        <v>0.006926627347005224</v>
+        <v>0.007031731926692199</v>
       </c>
       <c r="T11">
-        <v>0.006926627347005224</v>
+        <v>0.007031731926692199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H12">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I12">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J12">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.40359114967505</v>
+        <v>1.414264</v>
       </c>
       <c r="N12">
-        <v>1.40359114967505</v>
+        <v>4.242792</v>
       </c>
       <c r="O12">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403135</v>
       </c>
       <c r="P12">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403134</v>
       </c>
       <c r="Q12">
-        <v>142.9795313974062</v>
+        <v>144.3105429889573</v>
       </c>
       <c r="R12">
-        <v>142.9795313974062</v>
+        <v>1298.794886900616</v>
       </c>
       <c r="S12">
-        <v>0.01510003553452922</v>
+        <v>0.0144358628273095</v>
       </c>
       <c r="T12">
-        <v>0.01510003553452922</v>
+        <v>0.0144358628273095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H13">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I13">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J13">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.990266883032691</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N13">
-        <v>8.990266883032691</v>
+        <v>27.154433</v>
       </c>
       <c r="O13">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821262</v>
       </c>
       <c r="P13">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821261</v>
       </c>
       <c r="Q13">
-        <v>915.8109513380923</v>
+        <v>923.6066653249231</v>
       </c>
       <c r="R13">
-        <v>915.8109513380923</v>
+        <v>8312.459987924309</v>
       </c>
       <c r="S13">
-        <v>0.09671858463208717</v>
+        <v>0.09239144175377118</v>
       </c>
       <c r="T13">
-        <v>0.09671858463208717</v>
+        <v>0.09239144175377116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H14">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I14">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J14">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.46642872555989</v>
+        <v>8.586440999999999</v>
       </c>
       <c r="N14">
-        <v>8.46642872555989</v>
+        <v>25.759323</v>
       </c>
       <c r="O14">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="P14">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="Q14">
-        <v>862.449162685548</v>
+        <v>876.154638068031</v>
       </c>
       <c r="R14">
-        <v>862.449162685548</v>
+        <v>7885.391742612279</v>
       </c>
       <c r="S14">
-        <v>0.09108305836504503</v>
+        <v>0.08764465789328316</v>
       </c>
       <c r="T14">
-        <v>0.09108305836504503</v>
+        <v>0.08764465789328313</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H15">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I15">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J15">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.64716005971898</v>
+        <v>8.225523666666668</v>
       </c>
       <c r="N15">
-        <v>7.64716005971898</v>
+        <v>24.676571</v>
       </c>
       <c r="O15">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770994</v>
       </c>
       <c r="P15">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770993</v>
       </c>
       <c r="Q15">
-        <v>778.9927730113678</v>
+        <v>839.3268772345094</v>
       </c>
       <c r="R15">
-        <v>778.9927730113678</v>
+        <v>7553.941895110584</v>
       </c>
       <c r="S15">
-        <v>0.08226924818293602</v>
+        <v>0.08396065468313406</v>
       </c>
       <c r="T15">
-        <v>0.08226924818293602</v>
+        <v>0.08396065468313402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H16">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I16">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J16">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.01656782056138</v>
+        <v>1.089400666666666</v>
       </c>
       <c r="N16">
-        <v>1.01656782056138</v>
+        <v>3.268202</v>
       </c>
       <c r="O16">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="P16">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="Q16">
-        <v>103.5546502635035</v>
+        <v>111.1617079549495</v>
       </c>
       <c r="R16">
-        <v>103.5546502635035</v>
+        <v>1000.455371594546</v>
       </c>
       <c r="S16">
-        <v>0.01093638287566115</v>
+        <v>0.01111987478149731</v>
       </c>
       <c r="T16">
-        <v>0.01093638287566115</v>
+        <v>0.01111987478149731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H17">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I17">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J17">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.40359114967505</v>
+        <v>1.414264</v>
       </c>
       <c r="N17">
-        <v>1.40359114967505</v>
+        <v>4.242792</v>
       </c>
       <c r="O17">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403135</v>
       </c>
       <c r="P17">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403134</v>
       </c>
       <c r="Q17">
-        <v>116.7566368915064</v>
+        <v>119.435194447936</v>
       </c>
       <c r="R17">
-        <v>116.7566368915064</v>
+        <v>1074.916750031424</v>
       </c>
       <c r="S17">
-        <v>0.01233064165704668</v>
+        <v>0.01194749910916331</v>
       </c>
       <c r="T17">
-        <v>0.01233064165704668</v>
+        <v>0.01194749910916331</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H18">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I18">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J18">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.990266883032691</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N18">
-        <v>8.990266883032691</v>
+        <v>27.154433</v>
       </c>
       <c r="O18">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821262</v>
       </c>
       <c r="P18">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821261</v>
       </c>
       <c r="Q18">
-        <v>747.8483504708593</v>
+        <v>764.4011267765305</v>
       </c>
       <c r="R18">
-        <v>747.8483504708593</v>
+        <v>6879.610140988775</v>
       </c>
       <c r="S18">
-        <v>0.07898009285792001</v>
+        <v>0.07646558305882889</v>
       </c>
       <c r="T18">
-        <v>0.07898009285792001</v>
+        <v>0.07646558305882888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H19">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I19">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J19">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.46642872555989</v>
+        <v>8.586440999999999</v>
       </c>
       <c r="N19">
-        <v>8.46642872555989</v>
+        <v>25.759323</v>
       </c>
       <c r="O19">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="P19">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="Q19">
-        <v>704.2732812235736</v>
+        <v>725.1285831009839</v>
       </c>
       <c r="R19">
-        <v>704.2732812235736</v>
+        <v>6526.157247908855</v>
       </c>
       <c r="S19">
-        <v>0.07437813978377865</v>
+        <v>0.07253702010259988</v>
       </c>
       <c r="T19">
-        <v>0.07437813978377865</v>
+        <v>0.07253702010259987</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H20">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I20">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J20">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.64716005971898</v>
+        <v>8.225523666666668</v>
       </c>
       <c r="N20">
-        <v>7.64716005971898</v>
+        <v>24.676571</v>
       </c>
       <c r="O20">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770994</v>
       </c>
       <c r="P20">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770993</v>
       </c>
       <c r="Q20">
-        <v>636.1230551721188</v>
+        <v>694.6489612720347</v>
       </c>
       <c r="R20">
-        <v>636.1230551721188</v>
+        <v>6251.840651448312</v>
       </c>
       <c r="S20">
-        <v>0.06718081003311034</v>
+        <v>0.06948804231734793</v>
       </c>
       <c r="T20">
-        <v>0.06718081003311034</v>
+        <v>0.0694880423173479</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H21">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I21">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J21">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.01656782056138</v>
+        <v>1.089400666666666</v>
       </c>
       <c r="N21">
-        <v>1.01656782056138</v>
+        <v>3.268202</v>
       </c>
       <c r="O21">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="P21">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="Q21">
-        <v>84.56240261158219</v>
+        <v>92.00034820588264</v>
       </c>
       <c r="R21">
-        <v>84.56240261158219</v>
+        <v>828.0031338529438</v>
       </c>
       <c r="S21">
-        <v>0.0089306159548878</v>
+        <v>0.009203100336657027</v>
       </c>
       <c r="T21">
-        <v>0.0089306159548878</v>
+        <v>0.009203100336657026</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H22">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I22">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J22">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.40359114967505</v>
+        <v>1.414264</v>
       </c>
       <c r="N22">
-        <v>1.40359114967505</v>
+        <v>4.242792</v>
       </c>
       <c r="O22">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403135</v>
       </c>
       <c r="P22">
-        <v>0.05099514616989374</v>
+        <v>0.04985577133403134</v>
       </c>
       <c r="Q22">
-        <v>62.11143969902716</v>
+        <v>70.20465942230133</v>
       </c>
       <c r="R22">
-        <v>62.11143969902716</v>
+        <v>631.841934800712</v>
       </c>
       <c r="S22">
-        <v>0.006559574908308119</v>
+        <v>0.007022805210675938</v>
       </c>
       <c r="T22">
-        <v>0.006559574908308119</v>
+        <v>0.007022805210675936</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H23">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I23">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J23">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.990266883032691</v>
+        <v>9.051477666666665</v>
       </c>
       <c r="N23">
-        <v>8.990266883032691</v>
+        <v>27.154433</v>
       </c>
       <c r="O23">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821262</v>
       </c>
       <c r="P23">
-        <v>0.326633559860182</v>
+        <v>0.3190835662821261</v>
       </c>
       <c r="Q23">
-        <v>397.8355231955705</v>
+        <v>449.3191560111125</v>
       </c>
       <c r="R23">
-        <v>397.8355231955705</v>
+        <v>4043.872404100013</v>
       </c>
       <c r="S23">
-        <v>0.04201531840563939</v>
+        <v>0.04494688723023674</v>
       </c>
       <c r="T23">
-        <v>0.04201531840563939</v>
+        <v>0.04494688723023674</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H24">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I24">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J24">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.46642872555989</v>
+        <v>8.586440999999999</v>
       </c>
       <c r="N24">
-        <v>8.46642872555989</v>
+        <v>25.759323</v>
       </c>
       <c r="O24">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="P24">
-        <v>0.307601519500083</v>
+        <v>0.3026900487243905</v>
       </c>
       <c r="Q24">
-        <v>374.654740004216</v>
+        <v>426.234540407367</v>
       </c>
       <c r="R24">
-        <v>374.654740004216</v>
+        <v>3836.110863666303</v>
       </c>
       <c r="S24">
-        <v>0.03956720120671828</v>
+        <v>0.04263765647429441</v>
       </c>
       <c r="T24">
-        <v>0.03956720120671828</v>
+        <v>0.0426376564742944</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H25">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I25">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J25">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.64716005971898</v>
+        <v>8.225523666666668</v>
       </c>
       <c r="N25">
-        <v>7.64716005971898</v>
+        <v>24.676571</v>
       </c>
       <c r="O25">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770994</v>
       </c>
       <c r="P25">
-        <v>0.2778359247422054</v>
+        <v>0.2899669559770993</v>
       </c>
       <c r="Q25">
-        <v>338.4006240193291</v>
+        <v>408.3184522751146</v>
       </c>
       <c r="R25">
-        <v>338.4006240193291</v>
+        <v>3674.866070476032</v>
       </c>
       <c r="S25">
-        <v>0.0357384123283777</v>
+        <v>0.04084545068445843</v>
       </c>
       <c r="T25">
-        <v>0.0357384123283777</v>
+        <v>0.04084545068445842</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H26">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I26">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J26">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.01656782056138</v>
+        <v>1.089400666666666</v>
       </c>
       <c r="N26">
-        <v>1.01656782056138</v>
+        <v>3.268202</v>
       </c>
       <c r="O26">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="P26">
-        <v>0.03693384972763582</v>
+        <v>0.03840365768235254</v>
       </c>
       <c r="Q26">
-        <v>44.98495940316201</v>
+        <v>54.07830700474688</v>
       </c>
       <c r="R26">
-        <v>44.98495940316201</v>
+        <v>486.704763042722</v>
       </c>
       <c r="S26">
-        <v>0.004750851250302973</v>
+        <v>0.005409632627557872</v>
       </c>
       <c r="T26">
-        <v>0.004750851250302973</v>
+        <v>0.005409632627557871</v>
       </c>
     </row>
   </sheetData>
